--- a/lab4/lab4excel.xlsx
+++ b/lab4/lab4excel.xlsx
@@ -8,40 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/Computer_Network/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A39105A-A10E-624B-9DCB-72D0BCB302D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAB2AD-E24F-3945-8C05-A84313199C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52080" yWindow="2200" windowWidth="32500" windowHeight="19380" xr2:uid="{A4AB983F-3E68-5B43-8084-C0D36DBFAC56}"/>
+    <workbookView xWindow="23380" yWindow="620" windowWidth="28060" windowHeight="20860" activeTab="1" xr2:uid="{A4AB983F-3E68-5B43-8084-C0D36DBFAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$31:$L$40</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$P$31:$P$40</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$R$31:$R$40</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$L$31:$L$40</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$M$31:$M$40</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$31:$O$40</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$P$31:$P$40</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$R$31:$R$40</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$L$31:$L$40</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$31:$M$40</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$M$31:$M$40</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$O$31:$O$40</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$P$31:$P$40</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$R$31:$R$40</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$O$31:$O$40</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$P$31:$P$40</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$R$31:$R$40</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$31:$L$40</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$M$31:$M$40</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$31:$O$40</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -61,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Station  0 Mean Delay</t>
   </si>
@@ -107,15 +83,28 @@
   <si>
     <t>Mean Delay</t>
   </si>
+  <si>
+    <t>Throughput(S)</t>
+  </si>
+  <si>
+    <t>Station #</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,8 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,6 +517,121 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Binary Exp Backoff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE2C-D541-B984-8FF06F66EAB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -541,6 +647,7 @@
         <c:axId val="1233857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -890,7 +997,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean Delay VS Arrival Rate - 10 stations</a:t>
+              <a:t>Mean Delay VS Arrival Rate - 5 stations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -934,7 +1041,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>(5,5)</c:v>
+            <c:v>(3,5)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1049,7 +1156,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>(10,5)</c:v>
+            <c:v>(5,5)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1116,39 +1223,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$31:$S$40</c:f>
+              <c:f>Sheet1!$P$31:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1271,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>(20,5)</c:v>
+            <c:v>(7,5)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1231,39 +1338,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$31:$P$40</c:f>
+              <c:f>Sheet1!$S$31:$S$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,6 +1379,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E4F4-934D-AC64-89ACCE7BBB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Binary Exp Backoff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$31:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$31:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4F4-934D-AC64-89ACCE7BBB3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1290,6 +1512,7 @@
         <c:axId val="1233857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1604,6 +1827,2555 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Delay VS Arrival Rate - 5 stations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>(3,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$31:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.8019869999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9215789E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8252935999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6924654000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5241871000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3215225999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0855076000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8171502999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5174319000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1873075000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$31:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13698833.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA68-C047-B7DE-782D0F24CC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>(5,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$31:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.8019869999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9215789E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8252935999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6924654000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5241871000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3215225999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0855076000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8171502999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5174319000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1873075000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$31:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA68-C047-B7DE-782D0F24CC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>(7,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$31:$T$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.8019867330675532E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9215788783046465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8252936007527461E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6924653855465429E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.524187090179798E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3215226203029452E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0855076477916416E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8171503117296903E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5174319027014477E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1873075307798179E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$31:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA68-C047-B7DE-782D0F24CC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Binary Exp Backoff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$31:$W$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.8019867330675532E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9215788783046465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8252936007527461E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6924653855465429E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.524187090179798E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3215226203029452E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0855076477916416E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8171503117296903E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5174319027014477E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1873075307798179E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$31:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA68-C047-B7DE-782D0F24CC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1233857984"/>
+        <c:axId val="1234156928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1233857984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234156928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1234156928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233857984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput VS Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Delay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>(BNE,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$80:$X$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$106:$T$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1185.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47386.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17057.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51317.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252150.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176360.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89325.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332794.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>393507.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>466259.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>540149.30000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>398869.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>396096.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>234004.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>513277.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334455.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>456782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>(BNE,10)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$80:$X$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$65:$T$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220613.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104889.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119683.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4681.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163755.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>225481.60000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>483385.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>229267.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>209872.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>403582.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>534790.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40415.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>725877.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>(5,10)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201094664.30000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>(10,10)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$91:$AA$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$91:$AB$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1596341.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2739258.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3675749.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4500126.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>(20,10)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$91:$AE$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$91:$AD$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>692594.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1104679.1000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1464101.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1789949.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2078468.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2352083.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2612932.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2826352.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>(3,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$91:$AG$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$91:$AH$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5589273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8567362.6999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10792984.199999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12554758.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13935653.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15066617.699999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16011968.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>(5,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$91:$AE$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$91:$AJ$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1138810.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2099890.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2902823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>(7,5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL$91:$AL$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$91:$AM$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>368004.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>960818.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1484994.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1943768.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2352121.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2711071.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3046040.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3C2E-6E49-843C-B268F629D6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2044746031"/>
+        <c:axId val="2045122863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2044746031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045122863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2045122863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2044746031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1684,6 +4456,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2716,20 +5568,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1634360</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2759,13 +6643,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>123628</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>134868</xdr:rowOff>
+      <xdr:rowOff>134867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>365608</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>173655</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266989</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2787,6 +6671,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>645948</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>811206</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200796</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9579372A-D298-824D-8FE6-AB8209EDBC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>730247</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>401052</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>189385</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29F13A0-BEAB-7A0B-97CE-93B64E9D0A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3092,18 +7050,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A33711-CC43-8A4D-92B1-1FAAE5750085}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:AM129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="125" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="X94" zoomScale="125" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="AL69" sqref="AL69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3126,7 +7088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +7111,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +7134,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3195,7 +7157,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +7180,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +7203,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +7217,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3269,7 +7231,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3283,7 +7245,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +7259,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3311,7 +7273,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3334,7 +7296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3363,7 +7325,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +7339,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3396,26 +7358,8 @@
       <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.01</v>
       </c>
@@ -3434,26 +7378,8 @@
       <c r="I17">
         <v>1.4</v>
       </c>
-      <c r="L17">
-        <v>0.01</v>
-      </c>
-      <c r="M17">
-        <v>0.6</v>
-      </c>
-      <c r="O17">
-        <v>0.01</v>
-      </c>
-      <c r="P17">
-        <v>0.6</v>
-      </c>
-      <c r="R17">
-        <v>0.01</v>
-      </c>
-      <c r="S17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0.02</v>
       </c>
@@ -3472,26 +7398,8 @@
       <c r="I18">
         <v>1.9</v>
       </c>
-      <c r="L18">
-        <v>0.02</v>
-      </c>
-      <c r="M18">
-        <v>0.6</v>
-      </c>
-      <c r="O18">
-        <v>0.02</v>
-      </c>
-      <c r="P18">
-        <v>0.6</v>
-      </c>
-      <c r="R18">
-        <v>0.02</v>
-      </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>B18+0.01</f>
         <v>0.03</v>
@@ -3513,31 +7421,10 @@
       <c r="I19">
         <v>2.4</v>
       </c>
-      <c r="L19">
-        <f>L18+0.01</f>
-        <v>0.03</v>
-      </c>
-      <c r="M19">
-        <v>0.7</v>
-      </c>
-      <c r="O19">
-        <f>O18+0.01</f>
-        <v>0.03</v>
-      </c>
-      <c r="P19">
-        <v>0.7</v>
-      </c>
-      <c r="R19">
-        <f>R18+0.01</f>
-        <v>0.03</v>
-      </c>
-      <c r="S19">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20">
-        <f t="shared" ref="B20:B24" si="1">B19+0.01</f>
+        <f t="shared" ref="B20:B23" si="1">B19+0.01</f>
         <v>0.04</v>
       </c>
       <c r="C20">
@@ -3557,29 +7444,8 @@
       <c r="I20">
         <v>2.9</v>
       </c>
-      <c r="L20">
-        <f t="shared" ref="L20:L26" si="4">L19+0.01</f>
-        <v>0.04</v>
-      </c>
-      <c r="M20">
-        <v>0.8</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ref="O20:O26" si="5">O19+0.01</f>
-        <v>0.04</v>
-      </c>
-      <c r="P20">
-        <v>0.8</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ref="R20:R23" si="6">R19+0.01</f>
-        <v>0.04</v>
-      </c>
-      <c r="S20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>0.05</v>
@@ -3601,29 +7467,8 @@
       <c r="I21">
         <v>3.5</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="M21">
-        <v>0.8</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="5"/>
-        <v>0.05</v>
-      </c>
-      <c r="P21">
-        <v>0.9</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="6"/>
-        <v>0.05</v>
-      </c>
-      <c r="S21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>6.0000000000000005E-2</v>
@@ -3645,29 +7490,8 @@
       <c r="I22">
         <v>4.2</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="5"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="6"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="S22">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
@@ -3689,137 +7513,126 @@
       <c r="I23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="6"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S23">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L24">
-        <f t="shared" si="4"/>
-        <v>0.08</v>
-      </c>
-      <c r="M24">
-        <v>1.3</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-      <c r="P24">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L25">
-        <f t="shared" si="4"/>
-        <v>0.09</v>
-      </c>
-      <c r="M25">
-        <v>1.6</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="5"/>
-        <v>0.09</v>
-      </c>
-      <c r="P25">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L26">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="M26">
-        <v>6849416.7000000002</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="P26">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>13</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
       </c>
+      <c r="N30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="O30" t="s">
         <v>13</v>
       </c>
       <c r="P30" t="s">
         <v>14</v>
       </c>
+      <c r="Q30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="R30" t="s">
         <v>13</v>
       </c>
       <c r="S30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L31">
         <v>0.01</v>
       </c>
       <c r="M31">
         <v>1.1000000000000001</v>
       </c>
+      <c r="N31" s="1">
+        <v>9.8019869999999999E-3</v>
+      </c>
       <c r="O31">
         <v>0.01</v>
       </c>
       <c r="P31">
         <v>1.1000000000000001</v>
       </c>
+      <c r="Q31" s="1">
+        <v>9.8019869999999999E-3</v>
+      </c>
       <c r="R31">
         <v>0.01</v>
       </c>
       <c r="S31">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <f>R31*EXP(-2*R31)</f>
+        <v>9.8019867330675532E-3</v>
+      </c>
+      <c r="U31">
+        <v>0.01</v>
+      </c>
+      <c r="V31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W31">
+        <f>U31*EXP(-2*U31)</f>
+        <v>9.8019867330675532E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L32">
         <v>0.02</v>
       </c>
       <c r="M32">
         <v>1.2</v>
       </c>
+      <c r="N32" s="1">
+        <v>1.9215789E-2</v>
+      </c>
       <c r="O32">
         <v>0.02</v>
       </c>
       <c r="P32">
         <v>1.3</v>
       </c>
+      <c r="Q32" s="1">
+        <v>1.9215789E-2</v>
+      </c>
       <c r="R32">
         <v>0.02</v>
       </c>
       <c r="S32">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="33" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <f t="shared" ref="T32:T40" si="4">R32*EXP(-2*R32)</f>
+        <v>1.9215788783046465E-2</v>
+      </c>
+      <c r="U32">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>1.3</v>
+      </c>
+      <c r="W32">
+        <f t="shared" ref="W32:W40" si="5">U32*EXP(-2*U32)</f>
+        <v>1.9215788783046465E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L33">
         <f>L32+0.01</f>
         <v>0.03</v>
@@ -3827,6 +7640,9 @@
       <c r="M33">
         <v>1.4</v>
       </c>
+      <c r="N33" s="1">
+        <v>2.8252935999999999E-2</v>
+      </c>
       <c r="O33">
         <f>O32+0.01</f>
         <v>0.03</v>
@@ -3834,6 +7650,9 @@
       <c r="P33">
         <v>1.4</v>
       </c>
+      <c r="Q33" s="1">
+        <v>2.8252935999999999E-2</v>
+      </c>
       <c r="R33">
         <f>R32+0.01</f>
         <v>0.03</v>
@@ -3841,166 +7660,1455 @@
       <c r="S33">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <f t="shared" si="4"/>
+        <v>2.8252936007527461E-2</v>
+      </c>
+      <c r="U33">
+        <f>U32+0.01</f>
+        <v>0.03</v>
+      </c>
+      <c r="V33">
+        <v>1.4</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="5"/>
+        <v>2.8252936007527461E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L34">
-        <f t="shared" ref="L34:L40" si="7">L33+0.01</f>
+        <f t="shared" ref="L34:L40" si="6">L33+0.01</f>
         <v>0.04</v>
       </c>
       <c r="M34">
         <v>1.5</v>
       </c>
+      <c r="N34" s="1">
+        <v>3.6924654000000001E-2</v>
+      </c>
       <c r="O34">
-        <f t="shared" ref="O34:O40" si="8">O33+0.01</f>
+        <f t="shared" ref="O34:O40" si="7">O33+0.01</f>
         <v>0.04</v>
       </c>
       <c r="P34">
         <v>1.6</v>
       </c>
+      <c r="Q34" s="1">
+        <v>3.6924654000000001E-2</v>
+      </c>
       <c r="R34">
-        <f t="shared" ref="R34:R40" si="9">R33+0.01</f>
+        <f t="shared" ref="R34:R40" si="8">R33+0.01</f>
         <v>0.04</v>
       </c>
       <c r="S34">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="35" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>3.6924653855465429E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U40" si="9">U33+0.01</f>
+        <v>0.04</v>
+      </c>
+      <c r="V34">
+        <v>1.6</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>3.6924653855465429E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="M35">
+        <v>1.7</v>
+      </c>
+      <c r="N35" s="1">
+        <v>4.5241871000000003E-2</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="M35">
-        <v>1.7</v>
-      </c>
-      <c r="O35">
+      <c r="P35">
+        <v>1.8</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4.5241871000000003E-2</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
-      <c r="P35">
-        <v>1.8</v>
-      </c>
-      <c r="R35">
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>4.524187090179798E-2</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>1.9</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>4.524187090179798E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L36">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="M36">
+        <v>1.9</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5.3215225999999997E-2</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="7"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="M36">
-        <v>1.9</v>
-      </c>
-      <c r="O36">
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>5.3215225999999997E-2</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="8"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="R36">
+      <c r="S36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>5.3215226203029452E-2</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="9"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="S36">
+      <c r="V36">
+        <v>2.1</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="5"/>
+        <v>5.3215226203029452E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M37">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L37">
+      <c r="N37" s="1">
+        <v>6.0855076000000001E-2</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="7"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O37">
+      <c r="Q37" s="1">
+        <v>6.0855076000000001E-2</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="8"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R37">
+      <c r="S37">
+        <v>2.5</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="4"/>
+        <v>6.0855076477916416E-2</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="9"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="38" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <f t="shared" si="5"/>
+        <v>6.0855076477916416E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38" s="1">
+        <v>6.8171502999999994E-2</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="7"/>
         <v>0.08</v>
       </c>
-      <c r="M38">
-        <v>2.6</v>
-      </c>
-      <c r="O38">
+      <c r="P38">
+        <v>2.5</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>6.8171502999999994E-2</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
-      <c r="P38">
-        <v>2.5</v>
-      </c>
-      <c r="R38">
+      <c r="S38">
+        <v>2.8</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
+        <v>6.8171503117296903E-2</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="9"/>
         <v>0.08</v>
       </c>
-      <c r="S38">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="39" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>2.9</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="5"/>
+        <v>6.8171503117296903E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+      <c r="M39">
+        <v>3.1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>7.5174319000000003E-2</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="7"/>
         <v>0.09</v>
       </c>
-      <c r="M39">
-        <v>3.1</v>
-      </c>
-      <c r="O39">
+      <c r="P39">
+        <v>2.8</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>7.5174319000000003E-2</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="8"/>
         <v>0.09</v>
       </c>
-      <c r="P39">
-        <v>2.8</v>
-      </c>
-      <c r="R39">
+      <c r="S39">
+        <v>3.2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
+        <v>7.5174319027014477E-2</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="9"/>
         <v>0.09</v>
       </c>
-      <c r="S39">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="40" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>3.5</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>7.5174319027014477E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L40">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="M40">
+        <v>13698833.4</v>
+      </c>
+      <c r="N40" s="1">
+        <v>8.1873075000000003E-2</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="7"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="M40">
-        <v>13698833.4</v>
-      </c>
-      <c r="O40">
+      <c r="P40">
+        <v>3.2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>8.1873075000000003E-2</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="8"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="P40">
-        <v>3.2</v>
-      </c>
-      <c r="R40">
+      <c r="S40">
+        <v>3.5</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="4"/>
+        <v>8.1873075307798179E-2</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="9"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="S40">
+      <c r="V40">
+        <v>4.3</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="5"/>
+        <v>8.1873075307798179E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.01</v>
+      </c>
+      <c r="C52">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0.02</v>
+      </c>
+      <c r="C53">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f>B53+0.01</f>
+        <v>0.03</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <f t="shared" ref="B55:B61" si="10">B54+0.01</f>
+        <v>0.04</v>
+      </c>
+      <c r="C55">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="C56">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="C57">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f t="shared" si="10"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C58">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f t="shared" si="10"/>
+        <v>0.08</v>
+      </c>
+      <c r="C59">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f t="shared" si="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C61">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="65" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="W65">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X65">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <v>1.6</v>
+      </c>
+      <c r="W66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X66">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <v>2.1</v>
+      </c>
+      <c r="W67">
+        <v>15.2</v>
+      </c>
+      <c r="X67">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>2.9</v>
+      </c>
+      <c r="W68">
+        <v>438.8</v>
+      </c>
+      <c r="X68">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="69" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <v>4.2</v>
+      </c>
+      <c r="W69">
+        <v>211845.4</v>
+      </c>
+      <c r="X69">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="70" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <v>6.8</v>
+      </c>
+      <c r="W70">
+        <v>1831750.9</v>
+      </c>
+      <c r="X70">
+        <f>0.26</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="71" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T71">
+        <v>14.6</v>
+      </c>
+      <c r="W71">
+        <v>389422.2</v>
+      </c>
+      <c r="X71">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="72" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T72">
+        <v>45</v>
+      </c>
+      <c r="W72">
+        <v>1476573.4</v>
+      </c>
+      <c r="X72">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="73" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T73">
+        <v>188.6</v>
+      </c>
+      <c r="W73">
+        <v>1334373.2</v>
+      </c>
+      <c r="X73">
+        <f>0.41</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="74" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T74">
+        <v>3131</v>
+      </c>
+      <c r="W74">
+        <v>1580067.7</v>
+      </c>
+      <c r="X74">
+        <f>0.46</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="75" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T75">
+        <v>220613.3</v>
+      </c>
+    </row>
+    <row r="76" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T76">
+        <v>104889.7</v>
+      </c>
+    </row>
+    <row r="77" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T77">
+        <v>119683.9</v>
+      </c>
+    </row>
+    <row r="78" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T78">
+        <v>4681.6000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T79">
+        <v>163755.9</v>
+      </c>
+    </row>
+    <row r="80" spans="20:24" x14ac:dyDescent="0.2">
+      <c r="T80">
+        <v>108165</v>
+      </c>
+      <c r="U80">
+        <v>2.6</v>
+      </c>
+      <c r="W80">
+        <v>1.3</v>
+      </c>
+      <c r="X80">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T81">
+        <v>225481.60000000001</v>
+      </c>
+      <c r="U81">
+        <v>3.5</v>
+      </c>
+      <c r="W81">
+        <v>1.6</v>
+      </c>
+      <c r="X81">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T82">
+        <v>483385.1</v>
+      </c>
+      <c r="U82">
+        <v>4.8</v>
+      </c>
+      <c r="W82">
+        <v>2.1</v>
+      </c>
+      <c r="X82">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="83" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T83">
+        <v>229267.1</v>
+      </c>
+      <c r="U83">
+        <v>7.1</v>
+      </c>
+      <c r="W83">
+        <v>2.9</v>
+      </c>
+      <c r="X83">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="84" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T84">
+        <v>209872.2</v>
+      </c>
+      <c r="U84">
+        <v>11.8</v>
+      </c>
+      <c r="W84">
+        <v>4.2</v>
+      </c>
+      <c r="X84">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T85">
+        <v>403582.8</v>
+      </c>
+      <c r="U85">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="W85">
+        <v>6.8</v>
+      </c>
+      <c r="X85">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T86">
+        <v>534790.19999999995</v>
+      </c>
+      <c r="U86">
+        <v>260.2</v>
+      </c>
+      <c r="W86">
+        <v>14.6</v>
+      </c>
+      <c r="X86">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T87">
+        <v>40415.699999999997</v>
+      </c>
+      <c r="U87">
+        <v>2370.4</v>
+      </c>
+      <c r="W87">
+        <v>45</v>
+      </c>
+      <c r="X87">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="88" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T88">
+        <v>725877.3</v>
+      </c>
+      <c r="U88">
+        <v>94772.7</v>
+      </c>
+      <c r="W88">
+        <v>188.6</v>
+      </c>
+      <c r="X88">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U89">
+        <v>34115.599999999999</v>
+      </c>
+      <c r="W89">
+        <v>3131</v>
+      </c>
+      <c r="X89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U90">
+        <v>102634.6</v>
+      </c>
+      <c r="W90">
+        <v>220613.3</v>
+      </c>
+      <c r="X90">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="91" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U91">
+        <v>504301.7</v>
+      </c>
+      <c r="W91">
+        <v>104889.7</v>
+      </c>
+      <c r="X91">
+        <v>0.24</v>
+      </c>
+      <c r="AA91">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="AB91">
+        <v>1.5</v>
+      </c>
+      <c r="AD91">
+        <v>1.9</v>
+      </c>
+      <c r="AE91">
+        <v>0.02</v>
+      </c>
+      <c r="AG91" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AH91">
+        <v>1.2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.3</v>
+      </c>
+      <c r="AL91">
+        <v>0.02</v>
+      </c>
+      <c r="AM91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U92">
+        <v>352720.3</v>
+      </c>
+      <c r="W92">
+        <v>119683.9</v>
+      </c>
+      <c r="X92">
+        <v>0.26</v>
+      </c>
+      <c r="AA92">
+        <f>0.04</f>
+        <v>0.04</v>
+      </c>
+      <c r="AB92">
+        <v>2.1</v>
+      </c>
+      <c r="AD92">
+        <v>2.9</v>
+      </c>
+      <c r="AE92">
+        <v>0.04</v>
+      </c>
+      <c r="AG92" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AH92">
+        <v>1.5</v>
+      </c>
+      <c r="AJ92">
+        <v>1.6</v>
+      </c>
+      <c r="AL92">
+        <v>0.04</v>
+      </c>
+      <c r="AM92">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="93" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U93">
+        <v>178650.6</v>
+      </c>
+      <c r="W93">
+        <v>4681.6000000000004</v>
+      </c>
+      <c r="X93">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA93">
+        <f>0.06</f>
+        <v>0.06</v>
+      </c>
+      <c r="AB93">
+        <v>2.8</v>
+      </c>
+      <c r="AD93">
+        <v>4.2</v>
+      </c>
+      <c r="AE93">
+        <v>0.06</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AH93">
+        <v>1.9</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AL93">
+        <v>0.06</v>
+      </c>
+      <c r="AM93">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U94">
+        <v>665589.19999999995</v>
+      </c>
+      <c r="W94">
+        <v>163755.9</v>
+      </c>
+      <c r="X94">
+        <v>0.3</v>
+      </c>
+      <c r="AA94">
+        <f>0.08</f>
+        <v>0.08</v>
+      </c>
+      <c r="AB94">
+        <v>3.6</v>
+      </c>
+      <c r="AD94">
+        <v>5.8</v>
+      </c>
+      <c r="AE94">
+        <v>0.08</v>
+      </c>
+      <c r="AG94" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH94">
+        <v>2.6</v>
+      </c>
+      <c r="AJ94">
+        <v>2.5</v>
+      </c>
+      <c r="AL94">
+        <v>0.08</v>
+      </c>
+      <c r="AM94">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="95" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U95">
+        <v>787014.2</v>
+      </c>
+      <c r="W95">
+        <v>108165</v>
+      </c>
+      <c r="X95">
+        <v>0.32</v>
+      </c>
+      <c r="AA95">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="AB95">
+        <v>4.7</v>
+      </c>
+      <c r="AD95">
+        <v>7.6</v>
+      </c>
+      <c r="AE95">
+        <v>0.1</v>
+      </c>
+      <c r="AG95" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH95">
+        <v>6</v>
+      </c>
+      <c r="AJ95">
+        <v>3.2</v>
+      </c>
+      <c r="AL95">
+        <v>0.1</v>
+      </c>
+      <c r="AM95">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="96" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U96">
+        <v>932519.4</v>
+      </c>
+      <c r="W96">
+        <v>225481.60000000001</v>
+      </c>
+      <c r="X96">
+        <v>0.34</v>
+      </c>
+      <c r="AA96">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB96">
+        <v>6.2</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>0.12</v>
+      </c>
+      <c r="AG96" s="2">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="AH96">
+        <v>5589273</v>
+      </c>
+      <c r="AJ96">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL96">
+        <v>0.12</v>
+      </c>
+      <c r="AM96">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="97" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U97">
+        <v>1080298.6000000001</v>
+      </c>
+      <c r="W97">
+        <v>483385.1</v>
+      </c>
+      <c r="X97">
+        <v>0.36</v>
+      </c>
+      <c r="AA97">
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB97">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AD97">
+        <v>13</v>
+      </c>
+      <c r="AE97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG97" s="2">
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH97">
+        <v>8567362.6999999993</v>
+      </c>
+      <c r="AJ97">
+        <v>5.4</v>
+      </c>
+      <c r="AL97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AM97">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="98" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U98">
+        <v>797739.3</v>
+      </c>
+      <c r="W98">
+        <v>229267.1</v>
+      </c>
+      <c r="X98">
+        <v>0.38</v>
+      </c>
+      <c r="AA98">
+        <f>0.16</f>
+        <v>0.16</v>
+      </c>
+      <c r="AB98">
+        <v>11.6</v>
+      </c>
+      <c r="AD98">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AE98">
+        <v>0.16</v>
+      </c>
+      <c r="AG98" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AH98">
+        <v>10792984.199999999</v>
+      </c>
+      <c r="AJ98">
+        <v>7.6</v>
+      </c>
+      <c r="AL98">
+        <v>0.16</v>
+      </c>
+      <c r="AM98">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="99" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U99">
+        <v>792193.4</v>
+      </c>
+      <c r="W99">
+        <v>209872.2</v>
+      </c>
+      <c r="X99">
+        <v>0.4</v>
+      </c>
+      <c r="AA99">
+        <f>0.18</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB99">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AD99">
+        <v>22</v>
+      </c>
+      <c r="AE99">
+        <v>0.18</v>
+      </c>
+      <c r="AG99">
+        <f>0.18</f>
+        <v>0.18</v>
+      </c>
+      <c r="AH99">
+        <v>12554758.5</v>
+      </c>
+      <c r="AJ99">
+        <v>12</v>
+      </c>
+      <c r="AL99">
+        <v>0.18</v>
+      </c>
+      <c r="AM99">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="100" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U100">
+        <v>468008.2</v>
+      </c>
+      <c r="W100">
+        <v>403582.8</v>
+      </c>
+      <c r="X100">
+        <v>0.42</v>
+      </c>
+      <c r="AA100">
+        <v>0.2</v>
+      </c>
+      <c r="AB100">
+        <v>1596341.2</v>
+      </c>
+      <c r="AD100">
+        <v>29</v>
+      </c>
+      <c r="AE100">
+        <v>0.2</v>
+      </c>
+      <c r="AG100">
+        <v>0.2</v>
+      </c>
+      <c r="AH100">
+        <v>13935653.5</v>
+      </c>
+      <c r="AJ100">
+        <v>43.2</v>
+      </c>
+      <c r="AL100">
+        <v>0.2</v>
+      </c>
+      <c r="AM100">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="101" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U101">
+        <v>1026554.6</v>
+      </c>
+      <c r="W101">
+        <v>534790.19999999995</v>
+      </c>
+      <c r="X101">
+        <v>0.44</v>
+      </c>
+      <c r="AA101">
+        <v>0.22</v>
+      </c>
+      <c r="AB101">
+        <v>2739258.8</v>
+      </c>
+      <c r="AD101">
+        <v>39.1</v>
+      </c>
+      <c r="AE101">
+        <v>0.22</v>
+      </c>
+      <c r="AG101">
+        <v>0.22</v>
+      </c>
+      <c r="AH101">
+        <v>15066617.699999999</v>
+      </c>
+      <c r="AJ101">
+        <v>1138810.6000000001</v>
+      </c>
+      <c r="AL101">
+        <v>0.22</v>
+      </c>
+      <c r="AM101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U102">
+        <v>668910.69999999995</v>
+      </c>
+      <c r="W102">
+        <v>40415.699999999997</v>
+      </c>
+      <c r="X102">
+        <v>0.46</v>
+      </c>
+      <c r="AA102">
+        <v>0.24</v>
+      </c>
+      <c r="AB102">
+        <v>3675749.3</v>
+      </c>
+      <c r="AD102">
+        <v>54.6</v>
+      </c>
+      <c r="AE102">
+        <v>0.24</v>
+      </c>
+      <c r="AG102">
+        <v>0.24</v>
+      </c>
+      <c r="AH102">
+        <v>16011968.4</v>
+      </c>
+      <c r="AJ102">
+        <v>2099890.7999999998</v>
+      </c>
+      <c r="AL102">
+        <v>0.24</v>
+      </c>
+      <c r="AM102">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="103" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="U103">
+        <v>913564</v>
+      </c>
+      <c r="W103">
+        <v>725877.3</v>
+      </c>
+      <c r="X103">
+        <v>0.48</v>
+      </c>
+      <c r="AA103">
+        <v>0.26</v>
+      </c>
+      <c r="AB103">
+        <v>4500126.5</v>
+      </c>
+      <c r="AD103">
+        <v>82.5</v>
+      </c>
+      <c r="AE103">
+        <v>0.26</v>
+      </c>
+      <c r="AJ103">
+        <v>2902823</v>
+      </c>
+      <c r="AL103">
+        <v>0.26</v>
+      </c>
+      <c r="AM103">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="104" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="AD104">
+        <v>145.1</v>
+      </c>
+      <c r="AE104">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL104">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM104">
+        <v>368004.3</v>
+      </c>
+    </row>
+    <row r="105" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="AD105">
+        <v>437</v>
+      </c>
+      <c r="AE105">
+        <v>0.3</v>
+      </c>
+      <c r="AL105">
+        <v>0.3</v>
+      </c>
+      <c r="AM105">
+        <v>960818.7</v>
+      </c>
+    </row>
+    <row r="106" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T106">
+        <v>1.3</v>
+      </c>
+      <c r="AD106">
+        <v>233059</v>
+      </c>
+      <c r="AE106">
+        <v>0.32</v>
+      </c>
+      <c r="AL106">
+        <f>0.32</f>
+        <v>0.32</v>
+      </c>
+      <c r="AM106">
+        <v>1484994.4</v>
+      </c>
+    </row>
+    <row r="107" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T107">
+        <v>1.7</v>
+      </c>
+      <c r="AD107">
+        <v>692594.2</v>
+      </c>
+      <c r="AE107">
+        <v>0.34</v>
+      </c>
+      <c r="AL107">
+        <f>0.34</f>
+        <v>0.34</v>
+      </c>
+      <c r="AM107">
+        <v>1943768.1</v>
+      </c>
+    </row>
+    <row r="108" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T108">
+        <v>2.4</v>
+      </c>
+      <c r="AD108">
+        <v>1104679.1000000001</v>
+      </c>
+      <c r="AE108">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+      <c r="AL108">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+      <c r="AM108">
+        <v>2352121.7000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T109">
+        <v>3.5</v>
+      </c>
+      <c r="AD109">
+        <v>1464101.4</v>
+      </c>
+      <c r="AE109">
+        <f>0.38</f>
+        <v>0.38</v>
+      </c>
+      <c r="AL109">
+        <f>0.38</f>
+        <v>0.38</v>
+      </c>
+      <c r="AM109">
+        <v>2711071.8</v>
+      </c>
+    </row>
+    <row r="110" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T110">
+        <v>5.9</v>
+      </c>
+      <c r="AD110">
+        <v>1789949.8</v>
+      </c>
+      <c r="AE110">
+        <f>0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL110">
+        <f>0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="AM110">
+        <v>3046040.6</v>
+      </c>
+    </row>
+    <row r="111" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T111">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AD111">
+        <v>2078468.8</v>
+      </c>
+      <c r="AE111">
+        <f>0.42</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="112" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T112">
+        <v>130.1</v>
+      </c>
+      <c r="AD112">
+        <v>2352083.5</v>
+      </c>
+      <c r="AE112">
+        <f>0.44</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="113" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T113">
+        <v>1185.2</v>
+      </c>
+      <c r="AD113">
+        <v>2612932.2000000002</v>
+      </c>
+      <c r="AE113">
+        <f>0.46</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="114" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T114">
+        <v>47386.400000000001</v>
+      </c>
+      <c r="AD114">
+        <v>2826352.6</v>
+      </c>
+      <c r="AE114">
+        <f>0.48</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="115" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T115">
+        <v>17057.8</v>
+      </c>
+    </row>
+    <row r="116" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T116">
+        <v>51317.3</v>
+      </c>
+    </row>
+    <row r="117" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T117">
+        <v>252150.8</v>
+      </c>
+    </row>
+    <row r="118" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T118">
+        <v>176360.1</v>
+      </c>
+    </row>
+    <row r="119" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T119">
+        <v>89325.3</v>
+      </c>
+    </row>
+    <row r="120" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T120">
+        <v>332794.59999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T121">
+        <v>393507.1</v>
+      </c>
+    </row>
+    <row r="122" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T122">
+        <v>466259.7</v>
+      </c>
+    </row>
+    <row r="123" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T123">
+        <v>540149.30000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T124">
+        <v>398869.7</v>
+      </c>
+    </row>
+    <row r="125" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T125">
+        <v>396096.7</v>
+      </c>
+    </row>
+    <row r="126" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T126">
+        <v>234004.1</v>
+      </c>
+    </row>
+    <row r="127" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T127">
+        <v>513277.3</v>
+      </c>
+    </row>
+    <row r="128" spans="20:31" x14ac:dyDescent="0.2">
+      <c r="T128">
+        <v>334455.40000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T129">
+        <v>456782</v>
       </c>
     </row>
   </sheetData>
@@ -4008,4 +9116,110 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1120FE1A-7A14-FD4C-B847-7CABFB94C1A8}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab4/lab4excel.xlsx
+++ b/lab4/lab4excel.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/Computer_Network/lab4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.qiu\Desktop\Computer_Network\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAB2AD-E24F-3945-8C05-A84313199C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9B97A-A8B9-43DD-9A76-C337166A408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23380" yWindow="620" windowWidth="28060" windowHeight="20860" activeTab="1" xr2:uid="{A4AB983F-3E68-5B43-8084-C0D36DBFAC56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{A4AB983F-3E68-5B43-8084-C0D36DBFAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Station  0 Mean Delay</t>
   </si>
@@ -88,6 +90,36 @@
   </si>
   <si>
     <t>Station #</t>
+  </si>
+  <si>
+    <t>10 Stations</t>
+  </si>
+  <si>
+    <t>5 Stations</t>
+  </si>
+  <si>
+    <t>(3,5)</t>
+  </si>
+  <si>
+    <t>(5,5)</t>
+  </si>
+  <si>
+    <t>(7,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slotted </t>
+  </si>
+  <si>
+    <t>Slotted 5 Stations</t>
+  </si>
+  <si>
+    <t>(5,10)</t>
+  </si>
+  <si>
+    <t>(10,10)</t>
+  </si>
+  <si>
+    <t>(15,10)</t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2759,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput VS Mean</a:t>
+              <a:t>Arrival Rate VS Mean</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4099,7 +4131,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Throughput</a:t>
+                  <a:t>Arrival Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4376,6 +4408,4716 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Throughput VS Mean Delay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Stations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.389000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17413.107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7477.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20673.990000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85665.975000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197363.11300000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186610.674</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388902.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368913.41100000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>413507.71899999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>442749.29499999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>449443.88299999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>338882.99300000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239599.08100000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>403557.25199999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>425449.28399999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461623.79300000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>910329.51300000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>470919.07299999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Stations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.757999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.379000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>681.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1342.6969999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22763.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111483.69100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66400.267000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>266229.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233918.818</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>236374.44899999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198235.44899999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>371872.005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378533.25599999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>286527.47100000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>342044.08399999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>466852.94900000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>492681.22600000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>359822.25099999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>695437.978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(3,5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1359661.8489999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5617861.8370000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8565071.3239999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10824707.172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12550100.755999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13950561.688999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15079380.412</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16024046.192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16832799.745000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17515983.495999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18121021.587000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18639235.046999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19069751.245000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19472924.289999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19869039.186000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20199812.092</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20472492.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(5,5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.901999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1150031.3160000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2099738.5120000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2886551.0610000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3569942.8739999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4197593.2949999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4705301.2750000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5159829.0939999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5571168.8729999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5926327.8250000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(7,5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.126999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.433000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>374030.185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>971502.70200000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1483798.2819999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1954831.8389999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2349295.5460000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2717282.9470000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3052027.5660000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3354530.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3608292.659</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3872202.9810000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4085876.4410000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4302013.9179999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(5,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AB$2:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AC$2:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3702617.9879999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25615260.179000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29915256.267000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32872821.409000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35132482.369999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36859142.906999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(10,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AD$2:$AD$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AE$2:$AE$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3130000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.457999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1577357.588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2736349.676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3696386.486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4501217.3260000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5179019.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5766963.2070000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6305497.0429999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6749208.2439999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7164834.5520000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7529415.1150000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7858396.8099999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8157485.4199999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8431122.3809999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8672513.4079999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8884638.9340000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9108327.7530000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(15,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AF$2:$AF$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AG$2:$AG$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.654</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.280999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.022000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28821.893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>704817.16599999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1310798.9110000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1833225.973</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2289153.8990000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2693357.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3063308.551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3379143.1919999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3692825.9789999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3958556.4589999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4207670.9469999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4433427.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4638564.6040000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="319049712"/>
+        <c:axId val="241117408"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Slotted 10 Stations</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$A$32:$A$56</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.31900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.33300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.35499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.376</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.38900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.39800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.42399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.41299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.432</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.45100000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$B$32:$B$56</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1.62</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.734</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.863</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.0139999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.1930000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.4060000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.6779999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.0430000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5859999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.4409999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.1769999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10.01</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24.379000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>102.819</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>741.61500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>74870.604000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44905.366000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>91306.034</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>183528.83499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>145392.666</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>239172.601</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>243643.272</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>334494.43199999997</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>219659.375</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>360739.03399999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-0EBC-431D-8D2C-4D2CCF3FECD5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="319049712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241117408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241117408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319049712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Throughput VS Mean Delay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Slotted 10 Stations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$32:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.379000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.819</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>741.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74870.604000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44905.366000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91306.034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183528.83499999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145392.666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>239172.601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>243643.272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334494.43199999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>219659.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>360739.03399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Slotted 5 Stations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$32:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$32:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>554.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3003.819</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53405.631999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49579.491999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78258.267000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>414412.299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101022.948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>268474.06400000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>236107.617</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>354764.17200000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Stations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.389000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17413.107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7477.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20673.990000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85665.975000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197363.11300000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186610.674</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388902.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368913.41100000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>413507.71899999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>442749.29499999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>449443.88299999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>338882.99300000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239599.08100000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>403557.25199999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>425449.28399999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461623.79300000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>910329.51300000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>470919.07299999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Stations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.757999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.379000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>681.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1342.6969999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22763.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111483.69100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66400.267000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>266229.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233918.818</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>236374.44899999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198235.44899999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>371872.005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378533.25599999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>286527.47100000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>342044.08399999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>466852.94900000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>492681.22600000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>359822.25099999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>695437.978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(3,5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$59:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$59:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.988</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>191984.73499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>563206.61600000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>890967.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1186053.0109999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1460522.906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1710418.8529999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1925653.402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2136673.9789999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(5,5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$59:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$59:$H$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.6479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.956</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.462999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.369</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42227.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>341630.11200000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(7,5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$59:$I$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$59:$J$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.7539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.859000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>458.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>221497.62400000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>467146.33299999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>692689.17700000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>903320.71100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AB$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(5,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AB$59:$AB$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AC$59:$AC$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.273</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>777052.25699999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1239813.4539999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1649512.378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007993.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2341207.9500000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2641243.9550000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2908415.6680000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3152265.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AD$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(10,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AD$59:$AD$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AE$59:$AE$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>209.97200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>331546.72899999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630583.68599999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>892130.42599999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1136517.2109999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1368556.2390000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1568262.216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AF$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(15,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AF$59:$AF$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AG$59:$AG$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.093999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154.959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50006.267999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>329712.52399999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>575224.03700000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>787431.79500000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1001810.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-655E-4980-9239-3CF85CCEE155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="319049712"/>
+        <c:axId val="241117408"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="319049712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241117408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241117408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319049712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4536,6 +9278,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6085,6 +10907,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6745,6 +12599,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534865</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>106230</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80031</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008A3B0F-8E8E-516D-68E1-F96738BF913A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>245807</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>482898</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C6A1A2-E53C-4056-91D7-430667A61013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7052,20 +12985,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A33711-CC43-8A4D-92B1-1FAAE5750085}">
   <dimension ref="A1:AM129"/>
   <sheetViews>
-    <sheetView topLeftCell="X94" zoomScale="125" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="AL69" sqref="AL69"/>
+    <sheetView topLeftCell="V64" zoomScale="125" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="AK70" sqref="AK70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -7088,7 +13021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7111,7 +13044,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7134,7 +13067,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7157,7 +13090,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7180,7 +13113,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7203,7 +13136,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7217,7 +13150,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7231,7 +13164,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7245,7 +13178,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7259,7 +13192,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7273,7 +13206,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7296,7 +13229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -7325,7 +13258,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7339,7 +13272,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -7359,7 +13292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0.01</v>
       </c>
@@ -7379,7 +13312,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.02</v>
       </c>
@@ -7399,7 +13332,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19">
         <f>B18+0.01</f>
         <v>0.03</v>
@@ -7422,7 +13355,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" ref="B20:B23" si="1">B19+0.01</f>
         <v>0.04</v>
@@ -7445,7 +13378,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>0.05</v>
@@ -7468,7 +13401,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>6.0000000000000005E-2</v>
@@ -7491,7 +13424,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
@@ -7514,7 +13447,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
         <v>13</v>
       </c>
@@ -7552,7 +13485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L31">
         <v>0.01</v>
       </c>
@@ -7592,7 +13525,7 @@
         <v>9.8019867330675532E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L32">
         <v>0.02</v>
       </c>
@@ -7632,7 +13565,7 @@
         <v>1.9215788783046465E-2</v>
       </c>
     </row>
-    <row r="33" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L33">
         <f>L32+0.01</f>
         <v>0.03</v>
@@ -7676,7 +13609,7 @@
         <v>2.8252936007527461E-2</v>
       </c>
     </row>
-    <row r="34" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L34">
         <f t="shared" ref="L34:L40" si="6">L33+0.01</f>
         <v>0.04</v>
@@ -7720,7 +13653,7 @@
         <v>3.6924653855465429E-2</v>
       </c>
     </row>
-    <row r="35" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L35">
         <f t="shared" si="6"/>
         <v>0.05</v>
@@ -7764,7 +13697,7 @@
         <v>4.524187090179798E-2</v>
       </c>
     </row>
-    <row r="36" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L36">
         <f t="shared" si="6"/>
         <v>6.0000000000000005E-2</v>
@@ -7808,7 +13741,7 @@
         <v>5.3215226203029452E-2</v>
       </c>
     </row>
-    <row r="37" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L37">
         <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
@@ -7852,7 +13785,7 @@
         <v>6.0855076477916416E-2</v>
       </c>
     </row>
-    <row r="38" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L38">
         <f t="shared" si="6"/>
         <v>0.08</v>
@@ -7896,7 +13829,7 @@
         <v>6.8171503117296903E-2</v>
       </c>
     </row>
-    <row r="39" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L39">
         <f t="shared" si="6"/>
         <v>0.09</v>
@@ -7940,7 +13873,7 @@
         <v>7.5174319027014477E-2</v>
       </c>
     </row>
-    <row r="40" spans="12:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L40">
         <f t="shared" si="6"/>
         <v>9.9999999999999992E-2</v>
@@ -7984,7 +13917,7 @@
         <v>8.1873075307798179E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -7992,7 +13925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>0.01</v>
       </c>
@@ -8000,7 +13933,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>0.02</v>
       </c>
@@ -8008,7 +13941,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54">
         <f>B53+0.01</f>
         <v>0.03</v>
@@ -8017,7 +13950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="shared" ref="B55:B61" si="10">B54+0.01</f>
         <v>0.04</v>
@@ -8026,7 +13959,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56">
         <f t="shared" si="10"/>
         <v>0.05</v>
@@ -8035,7 +13968,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57">
         <f t="shared" si="10"/>
         <v>6.0000000000000005E-2</v>
@@ -8044,7 +13977,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58">
         <f t="shared" si="10"/>
         <v>7.0000000000000007E-2</v>
@@ -8053,7 +13986,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59">
         <f t="shared" si="10"/>
         <v>0.08</v>
@@ -8062,7 +13995,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60">
         <f t="shared" si="10"/>
         <v>0.09</v>
@@ -8071,7 +14004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61">
         <f t="shared" si="10"/>
         <v>9.9999999999999992E-2</v>
@@ -8080,7 +14013,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="65" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T65">
         <v>1.3</v>
       </c>
@@ -8091,7 +14024,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T66">
         <v>1.6</v>
       </c>
@@ -8102,7 +14035,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="67" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T67">
         <v>2.1</v>
       </c>
@@ -8113,7 +14046,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="68" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T68">
         <v>2.9</v>
       </c>
@@ -8124,7 +14057,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="69" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T69">
         <v>4.2</v>
       </c>
@@ -8135,7 +14068,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="70" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T70">
         <v>6.8</v>
       </c>
@@ -8147,7 +14080,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="71" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T71">
         <v>14.6</v>
       </c>
@@ -8158,7 +14091,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="72" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T72">
         <v>45</v>
       </c>
@@ -8170,7 +14103,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="73" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T73">
         <v>188.6</v>
       </c>
@@ -8182,7 +14115,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="74" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T74">
         <v>3131</v>
       </c>
@@ -8194,32 +14127,32 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="75" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T75">
         <v>220613.3</v>
       </c>
     </row>
-    <row r="76" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T76">
         <v>104889.7</v>
       </c>
     </row>
-    <row r="77" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T77">
         <v>119683.9</v>
       </c>
     </row>
-    <row r="78" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T78">
         <v>4681.6000000000004</v>
       </c>
     </row>
-    <row r="79" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T79">
         <v>163755.9</v>
       </c>
     </row>
-    <row r="80" spans="20:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T80">
         <v>108165</v>
       </c>
@@ -8233,7 +14166,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T81">
         <v>225481.60000000001</v>
       </c>
@@ -8247,7 +14180,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T82">
         <v>483385.1</v>
       </c>
@@ -8261,7 +14194,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="83" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T83">
         <v>229267.1</v>
       </c>
@@ -8275,7 +14208,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="84" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T84">
         <v>209872.2</v>
       </c>
@@ -8289,7 +14222,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T85">
         <v>403582.8</v>
       </c>
@@ -8303,7 +14236,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="86" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T86">
         <v>534790.19999999995</v>
       </c>
@@ -8317,7 +14250,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T87">
         <v>40415.699999999997</v>
       </c>
@@ -8331,7 +14264,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="88" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T88">
         <v>725877.3</v>
       </c>
@@ -8345,7 +14278,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="89" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U89">
         <v>34115.599999999999</v>
       </c>
@@ -8356,7 +14289,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U90">
         <v>102634.6</v>
       </c>
@@ -8367,7 +14300,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="91" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U91">
         <v>504301.7</v>
       </c>
@@ -8406,7 +14339,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U92">
         <v>352720.3</v>
       </c>
@@ -8445,7 +14378,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="93" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U93">
         <v>178650.6</v>
       </c>
@@ -8484,7 +14417,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U94">
         <v>665589.19999999995</v>
       </c>
@@ -8523,7 +14456,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="95" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U95">
         <v>787014.2</v>
       </c>
@@ -8562,7 +14495,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U96">
         <v>932519.4</v>
       </c>
@@ -8602,7 +14535,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="97" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U97">
         <v>1080298.6000000001</v>
       </c>
@@ -8642,7 +14575,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="98" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U98">
         <v>797739.3</v>
       </c>
@@ -8681,7 +14614,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="99" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U99">
         <v>792193.4</v>
       </c>
@@ -8721,7 +14654,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="100" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U100">
         <v>468008.2</v>
       </c>
@@ -8759,7 +14692,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="101" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U101">
         <v>1026554.6</v>
       </c>
@@ -8797,7 +14730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U102">
         <v>668910.69999999995</v>
       </c>
@@ -8835,7 +14768,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="103" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="20:39" x14ac:dyDescent="0.3">
       <c r="U103">
         <v>913564</v>
       </c>
@@ -8867,7 +14800,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="104" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="20:39" x14ac:dyDescent="0.3">
       <c r="AD104">
         <v>145.1</v>
       </c>
@@ -8881,7 +14814,7 @@
         <v>368004.3</v>
       </c>
     </row>
-    <row r="105" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="20:39" x14ac:dyDescent="0.3">
       <c r="AD105">
         <v>437</v>
       </c>
@@ -8895,7 +14828,7 @@
         <v>960818.7</v>
       </c>
     </row>
-    <row r="106" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T106">
         <v>1.3</v>
       </c>
@@ -8913,7 +14846,7 @@
         <v>1484994.4</v>
       </c>
     </row>
-    <row r="107" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T107">
         <v>1.7</v>
       </c>
@@ -8931,7 +14864,7 @@
         <v>1943768.1</v>
       </c>
     </row>
-    <row r="108" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T108">
         <v>2.4</v>
       </c>
@@ -8950,7 +14883,7 @@
         <v>2352121.7000000002</v>
       </c>
     </row>
-    <row r="109" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T109">
         <v>3.5</v>
       </c>
@@ -8969,7 +14902,7 @@
         <v>2711071.8</v>
       </c>
     </row>
-    <row r="110" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T110">
         <v>5.9</v>
       </c>
@@ -8988,7 +14921,7 @@
         <v>3046040.6</v>
       </c>
     </row>
-    <row r="111" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T111">
         <v>18.100000000000001</v>
       </c>
@@ -9000,7 +14933,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="20:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="20:39" x14ac:dyDescent="0.3">
       <c r="T112">
         <v>130.1</v>
       </c>
@@ -9012,7 +14945,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="113" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T113">
         <v>1185.2</v>
       </c>
@@ -9024,7 +14957,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="114" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T114">
         <v>47386.400000000001</v>
       </c>
@@ -9036,77 +14969,77 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="115" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T115">
         <v>17057.8</v>
       </c>
     </row>
-    <row r="116" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T116">
         <v>51317.3</v>
       </c>
     </row>
-    <row r="117" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T117">
         <v>252150.8</v>
       </c>
     </row>
-    <row r="118" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T118">
         <v>176360.1</v>
       </c>
     </row>
-    <row r="119" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T119">
         <v>89325.3</v>
       </c>
     </row>
-    <row r="120" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T120">
         <v>332794.59999999998</v>
       </c>
     </row>
-    <row r="121" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T121">
         <v>393507.1</v>
       </c>
     </row>
-    <row r="122" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T122">
         <v>466259.7</v>
       </c>
     </row>
-    <row r="123" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T123">
         <v>540149.30000000005</v>
       </c>
     </row>
-    <row r="124" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T124">
         <v>398869.7</v>
       </c>
     </row>
-    <row r="125" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T125">
         <v>396096.7</v>
       </c>
     </row>
-    <row r="126" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T126">
         <v>234004.1</v>
       </c>
     </row>
-    <row r="127" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T127">
         <v>513277.3</v>
       </c>
     </row>
-    <row r="128" spans="20:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="20:31" x14ac:dyDescent="0.3">
       <c r="T128">
         <v>334455.40000000002</v>
       </c>
     </row>
-    <row r="129" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T129">
         <v>456782</v>
       </c>
@@ -9122,16 +15055,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1120FE1A-7A14-FD4C-B847-7CABFB94C1A8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -9139,7 +15072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9147,7 +15080,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9155,7 +15088,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9163,7 +15096,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9171,7 +15104,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9179,7 +15112,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9187,7 +15120,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9195,7 +15128,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9203,7 +15136,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9211,7 +15144,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9222,4 +15155,2602 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA269D7-4750-445D-BCB6-2AAB80885987}">
+  <dimension ref="A1:AG83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AG35" sqref="AG35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.02</v>
+      </c>
+      <c r="B2">
+        <v>1.306</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>1.268</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>1.222</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>1.27</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>1.333</v>
+      </c>
+      <c r="AB2">
+        <v>0.02</v>
+      </c>
+      <c r="AC2">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="AD2">
+        <v>0.02</v>
+      </c>
+      <c r="AE2">
+        <v>1.486</v>
+      </c>
+      <c r="AF2">
+        <v>0.02</v>
+      </c>
+      <c r="AG2">
+        <v>1.6779999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.04</v>
+      </c>
+      <c r="B3">
+        <v>1.74</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.04</v>
+      </c>
+      <c r="F3">
+        <v>1.514</v>
+      </c>
+      <c r="G3">
+        <v>0.04</v>
+      </c>
+      <c r="H3">
+        <v>1.597</v>
+      </c>
+      <c r="I3">
+        <v>0.04</v>
+      </c>
+      <c r="J3">
+        <v>1.736</v>
+      </c>
+      <c r="AB3">
+        <v>0.04</v>
+      </c>
+      <c r="AC3">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.04</v>
+      </c>
+      <c r="AE3">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.04</v>
+      </c>
+      <c r="AG3">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.06</v>
+      </c>
+      <c r="B4">
+        <v>2.399</v>
+      </c>
+      <c r="C4">
+        <v>0.06</v>
+      </c>
+      <c r="D4">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.06</v>
+      </c>
+      <c r="H4">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.06</v>
+      </c>
+      <c r="AC4">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.06</v>
+      </c>
+      <c r="AE4">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>0.06</v>
+      </c>
+      <c r="AG4">
+        <v>3.4689999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.08</v>
+      </c>
+      <c r="B5">
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.08</v>
+      </c>
+      <c r="D5">
+        <v>2.944</v>
+      </c>
+      <c r="E5">
+        <v>0.08</v>
+      </c>
+      <c r="F5">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.08</v>
+      </c>
+      <c r="H5">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.08</v>
+      </c>
+      <c r="J5">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="AB5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AC5">
+        <v>3702617.9879999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.08</v>
+      </c>
+      <c r="AE5">
+        <v>3.645</v>
+      </c>
+      <c r="AF5">
+        <v>0.08</v>
+      </c>
+      <c r="AG5">
+        <v>4.6660000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>8.27</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>4.2709999999999999</v>
+      </c>
+      <c r="E6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>1359661.8489999999</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>3.544</v>
+      </c>
+      <c r="AB6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AC6">
+        <v>25615260.179000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>0.1</v>
+      </c>
+      <c r="AG6">
+        <v>6.1189999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.12</v>
+      </c>
+      <c r="B7">
+        <v>16.283999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="E7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>5617861.8370000003</v>
+      </c>
+      <c r="G7">
+        <v>0.12</v>
+      </c>
+      <c r="H7">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.12</v>
+      </c>
+      <c r="J7">
+        <v>4.4850000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AC7">
+        <v>29915256.267000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.12</v>
+      </c>
+      <c r="AE7">
+        <v>6.2069999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.12</v>
+      </c>
+      <c r="AG7">
+        <v>8.0129999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B8">
+        <v>52.389000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>18.757999999999999</v>
+      </c>
+      <c r="E8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>8565071.3239999991</v>
+      </c>
+      <c r="G8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>5.4470000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="AB8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AC8">
+        <v>32872821.409000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE8">
+        <v>8.3130000000000006</v>
+      </c>
+      <c r="AF8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>10.436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.16</v>
+      </c>
+      <c r="B9">
+        <v>17413.107</v>
+      </c>
+      <c r="C9">
+        <v>0.16</v>
+      </c>
+      <c r="D9">
+        <v>85.379000000000005</v>
+      </c>
+      <c r="E9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>10824707.172</v>
+      </c>
+      <c r="G9">
+        <v>0.16</v>
+      </c>
+      <c r="H9">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="I9">
+        <v>0.16</v>
+      </c>
+      <c r="J9">
+        <v>7.3310000000000004</v>
+      </c>
+      <c r="AB9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AC9">
+        <v>35132482.369999997</v>
+      </c>
+      <c r="AD9">
+        <v>0.16</v>
+      </c>
+      <c r="AE9">
+        <v>11.615</v>
+      </c>
+      <c r="AF9">
+        <v>0.16</v>
+      </c>
+      <c r="AG9">
+        <v>13.699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.18</v>
+      </c>
+      <c r="B10">
+        <v>7477.37</v>
+      </c>
+      <c r="C10">
+        <v>0.18</v>
+      </c>
+      <c r="D10">
+        <v>681.79300000000001</v>
+      </c>
+      <c r="E10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>12550100.755999999</v>
+      </c>
+      <c r="G10">
+        <v>0.18</v>
+      </c>
+      <c r="H10">
+        <v>11.901999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.18</v>
+      </c>
+      <c r="J10">
+        <v>9.6760000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AC10">
+        <v>36859142.906999998</v>
+      </c>
+      <c r="AD10">
+        <v>0.18</v>
+      </c>
+      <c r="AE10">
+        <v>20.457999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.18</v>
+      </c>
+      <c r="AG10">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B11">
+        <v>20673.990000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>1342.6969999999999</v>
+      </c>
+      <c r="E11">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>13950561.688999999</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>38.762</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>13.144</v>
+      </c>
+      <c r="AD11">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>1577357.588</v>
+      </c>
+      <c r="AF11">
+        <v>0.2</v>
+      </c>
+      <c r="AG11">
+        <v>25.654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.22</v>
+      </c>
+      <c r="B12">
+        <v>85665.975000000006</v>
+      </c>
+      <c r="C12">
+        <v>0.22</v>
+      </c>
+      <c r="D12">
+        <v>22763.86</v>
+      </c>
+      <c r="E12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>15079380.412</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
+        <v>1150031.3160000001</v>
+      </c>
+      <c r="I12">
+        <v>0.22</v>
+      </c>
+      <c r="J12">
+        <v>19.126999999999999</v>
+      </c>
+      <c r="AD12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE12">
+        <v>2736349.676</v>
+      </c>
+      <c r="AF12">
+        <v>0.22</v>
+      </c>
+      <c r="AG12">
+        <v>38.280999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="B13">
+        <v>197363.11300000001</v>
+      </c>
+      <c r="C13">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D13">
+        <v>111483.69100000001</v>
+      </c>
+      <c r="E13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>16024046.192</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>2099738.5120000001</v>
+      </c>
+      <c r="I13">
+        <v>0.24</v>
+      </c>
+      <c r="J13">
+        <v>31.141999999999999</v>
+      </c>
+      <c r="AD13">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>3696386.486</v>
+      </c>
+      <c r="AF13">
+        <v>0.24</v>
+      </c>
+      <c r="AG13">
+        <v>70.022000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.253</v>
+      </c>
+      <c r="B14">
+        <v>186610.674</v>
+      </c>
+      <c r="C14">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D14">
+        <v>66400.267000000007</v>
+      </c>
+      <c r="E14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>16832799.745000001</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>2886551.0610000002</v>
+      </c>
+      <c r="I14">
+        <v>0.26</v>
+      </c>
+      <c r="J14">
+        <v>88.433000000000007</v>
+      </c>
+      <c r="AD14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>4501217.3260000004</v>
+      </c>
+      <c r="AF14">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>28821.893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="B15">
+        <v>388902.51</v>
+      </c>
+      <c r="C15">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D15">
+        <v>266229.07</v>
+      </c>
+      <c r="E15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>17515983.495999999</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>3569942.8739999998</v>
+      </c>
+      <c r="I15">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J15">
+        <v>374030.185</v>
+      </c>
+      <c r="AD15">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>5179019.8</v>
+      </c>
+      <c r="AF15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG15">
+        <v>704817.16599999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="B16">
+        <v>368913.41100000002</v>
+      </c>
+      <c r="C16">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D16">
+        <v>233918.818</v>
+      </c>
+      <c r="E16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>18121021.587000001</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>4197593.2949999999</v>
+      </c>
+      <c r="I16">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J16">
+        <v>971502.70200000005</v>
+      </c>
+      <c r="AD16">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE16">
+        <v>5766963.2070000004</v>
+      </c>
+      <c r="AF16">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG16">
+        <v>1310798.9110000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="B17">
+        <v>413507.71899999998</v>
+      </c>
+      <c r="C17">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D17">
+        <v>236374.44899999999</v>
+      </c>
+      <c r="E17">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>18639235.046999998</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>4705301.2750000004</v>
+      </c>
+      <c r="I17">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J17">
+        <v>1483798.2819999999</v>
+      </c>
+      <c r="AD17">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE17">
+        <v>6305497.0429999996</v>
+      </c>
+      <c r="AF17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>1833225.973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.308</v>
+      </c>
+      <c r="B18">
+        <v>442749.29499999998</v>
+      </c>
+      <c r="C18">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D18">
+        <v>198235.44899999999</v>
+      </c>
+      <c r="E18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>19069751.245000001</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>5159829.0939999996</v>
+      </c>
+      <c r="I18">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J18">
+        <v>1954831.8389999999</v>
+      </c>
+      <c r="AD18">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>6749208.2439999999</v>
+      </c>
+      <c r="AF18">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>2289153.8990000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="B19">
+        <v>449443.88299999997</v>
+      </c>
+      <c r="C19">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D19">
+        <v>371872.005</v>
+      </c>
+      <c r="E19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>19472924.289999999</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>5571168.8729999997</v>
+      </c>
+      <c r="I19">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J19">
+        <v>2349295.5460000001</v>
+      </c>
+      <c r="AD19">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE19">
+        <v>7164834.5520000001</v>
+      </c>
+      <c r="AF19">
+        <v>0.26</v>
+      </c>
+      <c r="AG19">
+        <v>2693357.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="B20">
+        <v>338882.99300000002</v>
+      </c>
+      <c r="C20">
+        <v>0.36</v>
+      </c>
+      <c r="D20">
+        <v>378533.25599999999</v>
+      </c>
+      <c r="E20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>19869039.186000001</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>5926327.8250000002</v>
+      </c>
+      <c r="I20">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J20">
+        <v>2717282.9470000002</v>
+      </c>
+      <c r="AD20">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>7529415.1150000002</v>
+      </c>
+      <c r="AF20">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>3063308.551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="B21">
+        <v>239599.08100000001</v>
+      </c>
+      <c r="C21">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D21">
+        <v>286527.47100000002</v>
+      </c>
+      <c r="E21">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>20199812.092</v>
+      </c>
+      <c r="I21">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J21">
+        <v>3052027.5660000001</v>
+      </c>
+      <c r="AD21">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE21">
+        <v>7858396.8099999996</v>
+      </c>
+      <c r="AF21">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG21">
+        <v>3379143.1919999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="B22">
+        <v>403557.25199999998</v>
+      </c>
+      <c r="C22">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D22">
+        <v>342044.08399999997</v>
+      </c>
+      <c r="E22">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>20472492.59</v>
+      </c>
+      <c r="I22">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J22">
+        <v>3354530.64</v>
+      </c>
+      <c r="AD22">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE22">
+        <v>8157485.4199999999</v>
+      </c>
+      <c r="AF22">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG22">
+        <v>3692825.9789999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="B23">
+        <v>425449.28399999999</v>
+      </c>
+      <c r="C23">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D23">
+        <v>466852.94900000002</v>
+      </c>
+      <c r="I23">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J23">
+        <v>3608292.659</v>
+      </c>
+      <c r="AD23">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE23">
+        <v>8431122.3809999991</v>
+      </c>
+      <c r="AF23">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG23">
+        <v>3958556.4589999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="B24">
+        <v>461623.79300000001</v>
+      </c>
+      <c r="C24">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D24">
+        <v>492681.22600000002</v>
+      </c>
+      <c r="I24">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J24">
+        <v>3872202.9810000001</v>
+      </c>
+      <c r="AD24">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE24">
+        <v>8672513.4079999998</v>
+      </c>
+      <c r="AF24">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG24">
+        <v>4207670.9469999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="B25">
+        <v>910329.51300000004</v>
+      </c>
+      <c r="C25">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D25">
+        <v>359822.25099999999</v>
+      </c>
+      <c r="I25">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J25">
+        <v>4085876.4410000001</v>
+      </c>
+      <c r="AD25">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>8884638.9340000004</v>
+      </c>
+      <c r="AF25">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>4433427.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="B26">
+        <v>470919.07299999997</v>
+      </c>
+      <c r="C26">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D26">
+        <v>695437.978</v>
+      </c>
+      <c r="I26">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J26">
+        <v>4302013.9179999996</v>
+      </c>
+      <c r="AD26">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AE26">
+        <v>9108327.7530000005</v>
+      </c>
+      <c r="AF26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG26">
+        <v>4638564.6040000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.02</v>
+      </c>
+      <c r="B32">
+        <v>1.62</v>
+      </c>
+      <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32">
+        <v>1.611</v>
+      </c>
+      <c r="F32">
+        <v>0.02</v>
+      </c>
+      <c r="G32">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.04</v>
+      </c>
+      <c r="B33">
+        <v>1.734</v>
+      </c>
+      <c r="C33">
+        <v>0.04</v>
+      </c>
+      <c r="D33">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.04</v>
+      </c>
+      <c r="G33">
+        <v>1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.06</v>
+      </c>
+      <c r="B34">
+        <v>1.863</v>
+      </c>
+      <c r="C34">
+        <v>0.06</v>
+      </c>
+      <c r="D34">
+        <v>1.835</v>
+      </c>
+      <c r="F34">
+        <v>0.06</v>
+      </c>
+      <c r="G34">
+        <v>1.835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.08</v>
+      </c>
+      <c r="B35">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.08</v>
+      </c>
+      <c r="D35">
+        <v>1.976</v>
+      </c>
+      <c r="F35">
+        <v>0.08</v>
+      </c>
+      <c r="G35">
+        <v>1.976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.1</v>
+      </c>
+      <c r="B36">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.1</v>
+      </c>
+      <c r="D36">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+      <c r="G36">
+        <v>2.1440000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.12</v>
+      </c>
+      <c r="B37">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.12</v>
+      </c>
+      <c r="D37">
+        <v>2.343</v>
+      </c>
+      <c r="F37">
+        <v>0.12</v>
+      </c>
+      <c r="G37">
+        <v>2.343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B38">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D38">
+        <v>2.609</v>
+      </c>
+      <c r="F38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G38">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.16</v>
+      </c>
+      <c r="B39">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.16</v>
+      </c>
+      <c r="D39">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.16</v>
+      </c>
+      <c r="G39">
+        <v>2.9260000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.18</v>
+      </c>
+      <c r="B40">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.18</v>
+      </c>
+      <c r="D40">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="F40">
+        <v>0.18</v>
+      </c>
+      <c r="G40">
+        <v>3.4049999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.2</v>
+      </c>
+      <c r="B41">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+      <c r="D41">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+      <c r="G41">
+        <v>4.0629999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.22</v>
+      </c>
+      <c r="B42">
+        <v>6.1769999999999996</v>
+      </c>
+      <c r="C42">
+        <v>0.22</v>
+      </c>
+      <c r="D42">
+        <v>5.0510000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.22</v>
+      </c>
+      <c r="G42">
+        <v>5.0510000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.24</v>
+      </c>
+      <c r="B43">
+        <v>10.01</v>
+      </c>
+      <c r="C43">
+        <v>0.24</v>
+      </c>
+      <c r="D43">
+        <v>7.7590000000000003</v>
+      </c>
+      <c r="F43">
+        <v>0.24</v>
+      </c>
+      <c r="G43">
+        <v>7.7590000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.26</v>
+      </c>
+      <c r="B44">
+        <v>24.379000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.26</v>
+      </c>
+      <c r="D44">
+        <v>15.484999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.26</v>
+      </c>
+      <c r="G44">
+        <v>15.484999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B45">
+        <v>102.819</v>
+      </c>
+      <c r="C45">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D45">
+        <v>27.323</v>
+      </c>
+      <c r="F45">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G45">
+        <v>27.323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.3</v>
+      </c>
+      <c r="B46">
+        <v>741.61500000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.3</v>
+      </c>
+      <c r="D46">
+        <v>64.003</v>
+      </c>
+      <c r="F46">
+        <v>0.3</v>
+      </c>
+      <c r="G46">
+        <v>64.003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="B47">
+        <v>74870.604000000007</v>
+      </c>
+      <c r="C47">
+        <v>0.32</v>
+      </c>
+      <c r="D47">
+        <v>554.64800000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.32</v>
+      </c>
+      <c r="G47">
+        <v>554.64800000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="B48">
+        <v>44905.366000000002</v>
+      </c>
+      <c r="C48">
+        <v>0.34</v>
+      </c>
+      <c r="D48">
+        <v>3003.819</v>
+      </c>
+      <c r="F48">
+        <v>0.34</v>
+      </c>
+      <c r="G48">
+        <v>3003.819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="B49">
+        <v>91306.034</v>
+      </c>
+      <c r="C49">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D49">
+        <v>53405.631999999998</v>
+      </c>
+      <c r="F49">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G49">
+        <v>53405.631999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.376</v>
+      </c>
+      <c r="B50">
+        <v>183528.83499999999</v>
+      </c>
+      <c r="C50">
+        <v>0.378</v>
+      </c>
+      <c r="D50">
+        <v>49579.491999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.378</v>
+      </c>
+      <c r="G50">
+        <v>49579.491999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="B51">
+        <v>145392.666</v>
+      </c>
+      <c r="C51">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D51">
+        <v>78258.267000000007</v>
+      </c>
+      <c r="F51">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G51">
+        <v>78258.267000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="B52">
+        <v>239172.601</v>
+      </c>
+      <c r="C52">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D52">
+        <v>414412.299</v>
+      </c>
+      <c r="F52">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G52">
+        <v>414412.299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="B53">
+        <v>243643.272</v>
+      </c>
+      <c r="C53">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D53">
+        <v>101022.948</v>
+      </c>
+      <c r="F53">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G53">
+        <v>101022.948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="B54">
+        <v>334494.43199999997</v>
+      </c>
+      <c r="C54">
+        <v>0.44</v>
+      </c>
+      <c r="D54">
+        <v>268474.06400000001</v>
+      </c>
+      <c r="F54">
+        <v>0.44</v>
+      </c>
+      <c r="G54">
+        <v>268474.06400000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.432</v>
+      </c>
+      <c r="B55">
+        <v>219659.375</v>
+      </c>
+      <c r="C55">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D55">
+        <v>236107.617</v>
+      </c>
+      <c r="F55">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G55">
+        <v>236107.617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="B56">
+        <v>360739.03399999999</v>
+      </c>
+      <c r="C56">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D56">
+        <v>354764.17200000002</v>
+      </c>
+      <c r="F56">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G56">
+        <v>354764.17200000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>0.02</v>
+      </c>
+      <c r="F59">
+        <v>1.617</v>
+      </c>
+      <c r="G59">
+        <v>0.02</v>
+      </c>
+      <c r="H59">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.02</v>
+      </c>
+      <c r="J59">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="AB59">
+        <v>0.02</v>
+      </c>
+      <c r="AC59">
+        <v>1.661</v>
+      </c>
+      <c r="AD59">
+        <v>0.02</v>
+      </c>
+      <c r="AE59">
+        <v>1.756</v>
+      </c>
+      <c r="AF59">
+        <v>0.02</v>
+      </c>
+      <c r="AG59">
+        <v>1.853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>0.04</v>
+      </c>
+      <c r="F60">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.04</v>
+      </c>
+      <c r="H60">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.04</v>
+      </c>
+      <c r="J60">
+        <v>1.863</v>
+      </c>
+      <c r="AB60">
+        <v>0.04</v>
+      </c>
+      <c r="AC60">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="AD60">
+        <v>0.04</v>
+      </c>
+      <c r="AE60">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="AF60">
+        <v>0.04</v>
+      </c>
+      <c r="AG60">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>0.06</v>
+      </c>
+      <c r="F61">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.06</v>
+      </c>
+      <c r="H61">
+        <v>1.952</v>
+      </c>
+      <c r="I61">
+        <v>0.06</v>
+      </c>
+      <c r="J61">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="AB61">
+        <v>0.06</v>
+      </c>
+      <c r="AC61">
+        <v>1.986</v>
+      </c>
+      <c r="AD61">
+        <v>0.06</v>
+      </c>
+      <c r="AE61">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="AF61">
+        <v>0.06</v>
+      </c>
+      <c r="AG61">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>0.08</v>
+      </c>
+      <c r="F62">
+        <v>1.98</v>
+      </c>
+      <c r="G62">
+        <v>0.08</v>
+      </c>
+      <c r="H62">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="I62">
+        <v>0.08</v>
+      </c>
+      <c r="J62">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="AB62">
+        <v>0.08</v>
+      </c>
+      <c r="AC62">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="AD62">
+        <v>0.08</v>
+      </c>
+      <c r="AE62">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="AF62">
+        <v>0.08</v>
+      </c>
+      <c r="AG62">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>0.1</v>
+      </c>
+      <c r="F63">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0.1</v>
+      </c>
+      <c r="H63">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="I63">
+        <v>0.1</v>
+      </c>
+      <c r="J63">
+        <v>2.569</v>
+      </c>
+      <c r="AB63">
+        <v>0.1</v>
+      </c>
+      <c r="AC63">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="AD63">
+        <v>0.1</v>
+      </c>
+      <c r="AE63">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="AF63">
+        <v>0.1</v>
+      </c>
+      <c r="AG63">
+        <v>3.6659999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>0.12</v>
+      </c>
+      <c r="F64">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="G64">
+        <v>0.12</v>
+      </c>
+      <c r="H64">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.12</v>
+      </c>
+      <c r="J64">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="AB64">
+        <v>0.12</v>
+      </c>
+      <c r="AC64">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="AD64">
+        <v>0.12</v>
+      </c>
+      <c r="AE64">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="AF64">
+        <v>0.12</v>
+      </c>
+      <c r="AG64">
+        <v>4.2809999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F65">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H65">
+        <v>2.847</v>
+      </c>
+      <c r="I65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J65">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="AB65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC65">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="AD65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE65">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="AF65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG65">
+        <v>4.9829999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>0.16</v>
+      </c>
+      <c r="F66">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.16</v>
+      </c>
+      <c r="H66">
+        <v>3.161</v>
+      </c>
+      <c r="I66">
+        <v>0.16</v>
+      </c>
+      <c r="J66">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="AB66">
+        <v>0.16</v>
+      </c>
+      <c r="AC66">
+        <v>3.226</v>
+      </c>
+      <c r="AD66">
+        <v>0.16</v>
+      </c>
+      <c r="AE66">
+        <v>4.4359999999999999</v>
+      </c>
+      <c r="AF66">
+        <v>0.16</v>
+      </c>
+      <c r="AG66">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="67" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>0.18</v>
+      </c>
+      <c r="F67">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.18</v>
+      </c>
+      <c r="H67">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="I67">
+        <v>0.18</v>
+      </c>
+      <c r="J67">
+        <v>4.1369999999999996</v>
+      </c>
+      <c r="AB67">
+        <v>0.18</v>
+      </c>
+      <c r="AC67">
+        <v>3.601</v>
+      </c>
+      <c r="AD67">
+        <v>0.18</v>
+      </c>
+      <c r="AE67">
+        <v>5.07</v>
+      </c>
+      <c r="AF67">
+        <v>0.18</v>
+      </c>
+      <c r="AG67">
+        <v>6.8029999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>0.2</v>
+      </c>
+      <c r="F68">
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="G68">
+        <v>0.2</v>
+      </c>
+      <c r="H68">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="I68">
+        <v>0.2</v>
+      </c>
+      <c r="J68">
+        <v>4.718</v>
+      </c>
+      <c r="AB68">
+        <v>0.2</v>
+      </c>
+      <c r="AC68">
+        <v>4.05</v>
+      </c>
+      <c r="AD68">
+        <v>0.2</v>
+      </c>
+      <c r="AE68">
+        <v>5.8319999999999999</v>
+      </c>
+      <c r="AF68">
+        <v>0.2</v>
+      </c>
+      <c r="AG68">
+        <v>7.9359999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>0.22</v>
+      </c>
+      <c r="F69">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.22</v>
+      </c>
+      <c r="H69">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="I69">
+        <v>0.22</v>
+      </c>
+      <c r="J69">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="AB69">
+        <v>0.22</v>
+      </c>
+      <c r="AC69">
+        <v>4.6020000000000003</v>
+      </c>
+      <c r="AD69">
+        <v>0.22</v>
+      </c>
+      <c r="AE69">
+        <v>6.7110000000000003</v>
+      </c>
+      <c r="AF69">
+        <v>0.22</v>
+      </c>
+      <c r="AG69">
+        <v>9.3279999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>0.24</v>
+      </c>
+      <c r="F70">
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="G70">
+        <v>0.24</v>
+      </c>
+      <c r="H70">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="I70">
+        <v>0.24</v>
+      </c>
+      <c r="J70">
+        <v>6.28</v>
+      </c>
+      <c r="AB70">
+        <v>0.24</v>
+      </c>
+      <c r="AC70">
+        <v>5.319</v>
+      </c>
+      <c r="AD70">
+        <v>0.24</v>
+      </c>
+      <c r="AE70">
+        <v>7.8419999999999996</v>
+      </c>
+      <c r="AF70">
+        <v>0.24</v>
+      </c>
+      <c r="AG70">
+        <v>11.093999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>0.26</v>
+      </c>
+      <c r="F71">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="G71">
+        <v>0.26</v>
+      </c>
+      <c r="H71">
+        <v>6.0629999999999997</v>
+      </c>
+      <c r="I71">
+        <v>0.26</v>
+      </c>
+      <c r="J71">
+        <v>7.3579999999999997</v>
+      </c>
+      <c r="AB71">
+        <v>0.26</v>
+      </c>
+      <c r="AC71">
+        <v>6.2480000000000002</v>
+      </c>
+      <c r="AD71">
+        <v>0.26</v>
+      </c>
+      <c r="AE71">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="AF71">
+        <v>0.26</v>
+      </c>
+      <c r="AG71">
+        <v>13.215</v>
+      </c>
+    </row>
+    <row r="72" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F72">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="G72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H72">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="I72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J72">
+        <v>8.7539999999999996</v>
+      </c>
+      <c r="AB72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC72">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="AD72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE72">
+        <v>11.073</v>
+      </c>
+      <c r="AF72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG72">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="73" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>0.3</v>
+      </c>
+      <c r="F73">
+        <v>7.98</v>
+      </c>
+      <c r="G73">
+        <v>0.3</v>
+      </c>
+      <c r="H73">
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="I73">
+        <v>0.3</v>
+      </c>
+      <c r="J73">
+        <v>10.597</v>
+      </c>
+      <c r="AB73">
+        <v>0.3</v>
+      </c>
+      <c r="AC73">
+        <v>10.273</v>
+      </c>
+      <c r="AD73">
+        <v>0.3</v>
+      </c>
+      <c r="AE73">
+        <v>13.544</v>
+      </c>
+      <c r="AF73">
+        <v>0.3</v>
+      </c>
+      <c r="AG73">
+        <v>19.658999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>0.32</v>
+      </c>
+      <c r="F74">
+        <v>11.259</v>
+      </c>
+      <c r="G74">
+        <v>0.32</v>
+      </c>
+      <c r="H74">
+        <v>10.956</v>
+      </c>
+      <c r="I74">
+        <v>0.32</v>
+      </c>
+      <c r="J74">
+        <v>13.097</v>
+      </c>
+      <c r="AB74">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC74">
+        <v>777052.25699999998</v>
+      </c>
+      <c r="AD74">
+        <v>0.32</v>
+      </c>
+      <c r="AE74">
+        <v>17.184999999999999</v>
+      </c>
+      <c r="AF74">
+        <v>0.32</v>
+      </c>
+      <c r="AG74">
+        <v>24.895</v>
+      </c>
+    </row>
+    <row r="75" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>0.34</v>
+      </c>
+      <c r="F75">
+        <v>21.988</v>
+      </c>
+      <c r="G75">
+        <v>0.34</v>
+      </c>
+      <c r="H75">
+        <v>14.462999999999999</v>
+      </c>
+      <c r="I75">
+        <v>0.34</v>
+      </c>
+      <c r="J75">
+        <v>16.763999999999999</v>
+      </c>
+      <c r="AB75">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC75">
+        <v>1239813.4539999999</v>
+      </c>
+      <c r="AD75">
+        <v>0.34</v>
+      </c>
+      <c r="AE75">
+        <v>23.337</v>
+      </c>
+      <c r="AF75">
+        <v>0.34</v>
+      </c>
+      <c r="AG75">
+        <v>32.603999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>0.35</v>
+      </c>
+      <c r="F76">
+        <v>191984.73499999999</v>
+      </c>
+      <c r="G76">
+        <v>0.36</v>
+      </c>
+      <c r="H76">
+        <v>21.369</v>
+      </c>
+      <c r="I76">
+        <v>0.36</v>
+      </c>
+      <c r="J76">
+        <v>22.859000000000002</v>
+      </c>
+      <c r="AB76">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC76">
+        <v>1649512.378</v>
+      </c>
+      <c r="AD76">
+        <v>0.36</v>
+      </c>
+      <c r="AE76">
+        <v>36.646000000000001</v>
+      </c>
+      <c r="AF76">
+        <v>0.36</v>
+      </c>
+      <c r="AG76">
+        <v>45.584000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>0.35</v>
+      </c>
+      <c r="F77">
+        <v>563206.61600000004</v>
+      </c>
+      <c r="G77">
+        <v>0.38</v>
+      </c>
+      <c r="H77">
+        <v>43.326000000000001</v>
+      </c>
+      <c r="I77">
+        <v>0.38</v>
+      </c>
+      <c r="J77">
+        <v>34.302</v>
+      </c>
+      <c r="AB77">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC77">
+        <v>2007993.37</v>
+      </c>
+      <c r="AD77">
+        <v>0.38</v>
+      </c>
+      <c r="AE77">
+        <v>209.97200000000001</v>
+      </c>
+      <c r="AF77">
+        <v>0.38</v>
+      </c>
+      <c r="AG77">
+        <v>72.347999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>0.35</v>
+      </c>
+      <c r="F78">
+        <v>890967.34</v>
+      </c>
+      <c r="G78">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H78">
+        <v>42227.64</v>
+      </c>
+      <c r="I78">
+        <v>0.4</v>
+      </c>
+      <c r="J78">
+        <v>63.35</v>
+      </c>
+      <c r="AB78">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC78">
+        <v>2341207.9500000002</v>
+      </c>
+      <c r="AD78">
+        <v>0.38</v>
+      </c>
+      <c r="AE78">
+        <v>331546.72899999999</v>
+      </c>
+      <c r="AF78">
+        <v>0.4</v>
+      </c>
+      <c r="AG78">
+        <v>154.959</v>
+      </c>
+    </row>
+    <row r="79" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>0.35</v>
+      </c>
+      <c r="F79">
+        <v>1186053.0109999999</v>
+      </c>
+      <c r="G79">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H79">
+        <v>341630.11200000002</v>
+      </c>
+      <c r="I79">
+        <v>0.42</v>
+      </c>
+      <c r="J79">
+        <v>458.11599999999999</v>
+      </c>
+      <c r="AB79">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC79">
+        <v>2641243.9550000001</v>
+      </c>
+      <c r="AD79">
+        <v>0.38</v>
+      </c>
+      <c r="AE79">
+        <v>630583.68599999999</v>
+      </c>
+      <c r="AF79">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AG79">
+        <v>50006.267999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>0.35</v>
+      </c>
+      <c r="F80">
+        <v>1460522.906</v>
+      </c>
+      <c r="I80">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J80">
+        <v>221497.62400000001</v>
+      </c>
+      <c r="AB80">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC80">
+        <v>2908415.6680000001</v>
+      </c>
+      <c r="AD80">
+        <v>0.38</v>
+      </c>
+      <c r="AE80">
+        <v>892130.42599999998</v>
+      </c>
+      <c r="AF80">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AG80">
+        <v>329712.52399999998</v>
+      </c>
+    </row>
+    <row r="81" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>0.35</v>
+      </c>
+      <c r="F81">
+        <v>1710418.8529999999</v>
+      </c>
+      <c r="I81">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J81">
+        <v>467146.33299999998</v>
+      </c>
+      <c r="AB81">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AC81">
+        <v>3152265.81</v>
+      </c>
+      <c r="AD81">
+        <v>0.38</v>
+      </c>
+      <c r="AE81">
+        <v>1136517.2109999999</v>
+      </c>
+      <c r="AF81">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AG81">
+        <v>575224.03700000001</v>
+      </c>
+    </row>
+    <row r="82" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>0.35</v>
+      </c>
+      <c r="F82">
+        <v>1925653.402</v>
+      </c>
+      <c r="I82">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J82">
+        <v>692689.17700000003</v>
+      </c>
+      <c r="AD82">
+        <v>0.38</v>
+      </c>
+      <c r="AE82">
+        <v>1368556.2390000001</v>
+      </c>
+      <c r="AF82">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AG82">
+        <v>787431.79500000004</v>
+      </c>
+    </row>
+    <row r="83" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>0.35</v>
+      </c>
+      <c r="F83">
+        <v>2136673.9789999998</v>
+      </c>
+      <c r="I83">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J83">
+        <v>903320.71100000001</v>
+      </c>
+      <c r="AD83">
+        <v>0.38</v>
+      </c>
+      <c r="AE83">
+        <v>1568262.216</v>
+      </c>
+      <c r="AF83">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AG83">
+        <v>1001810.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E980E8B-A25D-4264-8DCB-06046E7B4CBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>